--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -75,7 +75,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.917301</t>
+    <t>3.753963</t>
   </si>
   <si>
     <t>pass</t>
@@ -84,6 +84,236 @@
     <t xml:space="preserve">{
   "args": {
     "show_env": "1"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "3381f7c0-c122-4573-84b5-13f9f926bf33", 
+    "X-Request-Start": "1547280605510"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=1"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 2}</t>
+  </si>
+  <si>
+    <t>1.018344</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "2"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "c1b67c6d-b6ba-4969-89f4-0c23583c6119", 
+    "X-Request-Start": "1547280607248"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=2"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 3}</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>0.968367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "3"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "1", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "09d16abe-f615-4c2a-b30d-8063ee1b5710", 
+    "X-Request-Start": "1547280609415"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=3"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 4}</t>
+  </si>
+  <si>
+    <t>0.868745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "4"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "1", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "e4cb085a-b14e-4432-b1dc-db587f22d94d", 
+    "X-Request-Start": "1547280611005"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=4"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 5}</t>
+  </si>
+  <si>
+    <t>0.977109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "e783478b-742a-495f-90b5-f71d8baf2403", 
+    "X-Request-Start": "1547280612180"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>1.096566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "1", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "4e127169-694d-4209-bad4-2be9a5bfc68d", 
+    "X-Request-Start": "1547280613531"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>1.012274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "b26cbbd9-6a37-4559-bc6d-badbb9ada013", 
+    "X-Request-Start": "1547280614738"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>0.922639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -95,30 +325,59 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-For": "101.81.15.143", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "de97d49a-8273-48bb-83e0-9dc24169400d", 
-    "X-Request-Start": "1545983931708"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=1"
+    "X-Request-Id": "78bf0f48-f8cb-45c1-908c-20d2fc0fced9", 
+    "X-Request-Start": "1547280615972"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=8"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 2}</t>
-  </si>
-  <si>
-    <t>0.9582</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>0.874558</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "2"
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "1", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "938c6e42-298a-41e4-9381-20c7c532deff", 
+    "X-Request-Start": "1547280617084"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>0.862914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -130,30 +389,109 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-For": "101.81.15.143", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "5baf9ec9-6bcf-490c-b2ec-4f07d0e0f547", 
-    "X-Request-Start": "1545983932824"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=2"
+    "X-Request-Id": "5d67314b-cd33-46f7-844c-0f512a550d77", 
+    "X-Request-Start": "1547280618220"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=10"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 3}</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>0.910254</t>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>0.833765</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "3"
+    "show_env": "11"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "1", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "0b723215-350a-4c12-bdbb-c83c9209cf1d", 
+    "X-Request-Start": "1547280619273"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=11"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>1.10519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "1", 
+    "User-Agent": "python-requests/2.19.1", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "101.81.15.143", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "542f59e2-b13d-4934-b2c7-78ac3e4c33ce", 
+    "X-Request-Start": "1547278978554"
+  }, 
+  "origin": "101.81.15.143", 
+  "url": "https://httpbin.org/get?show_env=12"
+}
+</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sheng</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//input[@id="kw"]</t>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>0.951303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -165,352 +503,14 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.19.1", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
+    "X-Forwarded-For": "101.81.15.143", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "10cfc804-8efc-43bf-aee7-4745c6ae9dbe", 
-    "X-Request-Start": "1545983933870"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=3"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 4}</t>
-  </si>
-  <si>
-    <t>0.931203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "4"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "15153254-52ba-4945-b0ad-cbab91e43034", 
-    "X-Request-Start": "1545983934951"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=4"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 5}</t>
-  </si>
-  <si>
-    <t>0.918362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "5"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "cfc2d4aa-ecf8-45fe-99e4-af15078f189c", 
-    "X-Request-Start": "1545983936009"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=5"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>0.939287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "6"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "aa083666-285f-4fea-a648-1d959461d055", 
-    "X-Request-Start": "1545983937076"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=6"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>0.965328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "7"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "3ca6081b-377d-48e8-84b6-e84ab548d838", 
-    "X-Request-Start": "1545983938217"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=7"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>0.906918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "8"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "31941628-9e5a-4b74-a591-b6d5ba8f1f27", 
-    "X-Request-Start": "1545983939269"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>1.039194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "570c1a7d-1290-4812-8e34-2f16ee56617a", 
-    "X-Request-Start": "1545983940456"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>0.939471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "e9aeda83-4bec-49f4-9472-91da2ccf84f2", 
-    "X-Request-Start": "1545983941553"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>1.095668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.2.198.167", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "193fe11f-6be6-4fe4-a9ad-310fb06e93e0", 
-    "X-Request-Start": "1534051160393"
-  }, 
-  "origin": "183.2.198.167", 
-  "url": "https://httpbin.org/get?show_env=11"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>0.958662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.28", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "6eeecd75-a610-4429-bcfc-3c813f17248d", 
-    "X-Request-Start": "1534051161592"
-  }, 
-  "origin": "183.240.20.28", 
+    "X-Request-Id": "b337be1e-6e1b-40c8-abb3-7630488b7a5c", 
+    "X-Request-Start": "1547280620410"
+  }, 
+  "origin": "101.81.15.143", 
   "url": "https://httpbin.org/get?show_env=12"
-}
-</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>sheng</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>//input[@id="kw"]</t>
-  </si>
-  <si>
-    <t>//*[@id="su"]</t>
-  </si>
-  <si>
-    <t>0.949912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.19.1", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "113.111.10.187", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "2c87b428-9945-4def-a1fb-483fa0920af9", 
-    "X-Request-Start": "1545983942638"
-  }, 
-  "origin": "113.111.10.187", 
-  "url": "https://httpbin.org/get?show_env=11"
 }
 </t>
   </si>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1403,15 +1403,15 @@
         <v>18</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="N12" s="11" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="43" r="13" s="1" spans="1:14">
       <c r="A13" s="1" t="n">
@@ -1436,30 +1436,30 @@
         <v>18</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="11" t="n"/>
+        <v>65</v>
+      </c>
+      <c r="N13" s="11" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" tooltip="https://httpbin.org/get" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" tooltip="https://httpbin.org/get" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" tooltip="https://httpbin.org/get" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" tooltip="https://httpbin.org/get" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" tooltip="https://httpbin.org/get" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" tooltip="https://httpbin.org/get" r:id="rId12"/>
+    <hyperlink ref="B2" tooltip="https://httpbin.org/get" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="https://httpbin.org/get" r:id="rId2"/>
+    <hyperlink ref="B4" tooltip="https://httpbin.org/get" r:id="rId3"/>
+    <hyperlink ref="B5" tooltip="https://httpbin.org/get" r:id="rId4"/>
+    <hyperlink ref="B6" tooltip="https://httpbin.org/get" r:id="rId5"/>
+    <hyperlink ref="B7" tooltip="https://httpbin.org/get" r:id="rId6"/>
+    <hyperlink ref="B8" tooltip="https://httpbin.org/get" r:id="rId7"/>
+    <hyperlink ref="B9" tooltip="https://httpbin.org/get" r:id="rId8"/>
+    <hyperlink ref="B10" tooltip="https://httpbin.org/get" r:id="rId9"/>
+    <hyperlink ref="B11" tooltip="https://httpbin.org/get" r:id="rId10"/>
+    <hyperlink ref="B12" tooltip="https://httpbin.org/get" r:id="rId11"/>
+    <hyperlink ref="B13" tooltip="https://httpbin.org/get" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="landscape" paperSize="3"/>
